--- a/medicine/Enfance/Sophie_Gourion/Sophie_Gourion.xlsx
+++ b/medicine/Enfance/Sophie_Gourion/Sophie_Gourion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sophie Gourion, née à Paris en 1973, est une féministe, journaliste, blogueuse et autrice jeunesse. Créatrice du blog Tout à l’égo, elle est également à l'origine du podcast Corps et âme et du Tumblr Les Mots Tuent, dénonçant le traitement journalistique des violences faites aux femmes.
 </t>
@@ -513,17 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et études
-Née à Paris en 1973, Sophie Gourion obtient en 1991 un baccalauréat lettres et langues, suivi d'un BTS commerce international. Elle poursuit avec une licence en Sciences de l'éducation à l'université Paris X Nanterre. 
-Parcours professionnel
-Sophie Gourion travaille pendant 11 ans dans le marketing et la communication chez L’Oréal [1],[2](2000-2011).
-De 2012 à 2015, elle se reconvertit en tant que journaliste freelance[3], se spécialisant dans le gender marketing, l'égalité femmes hommes et les stéréotypes de genre. Elle collabore avec des médias tels que Slate , Auféminin.com, L’Express styles[4] et Rue 89[5].
-Dans ses articles, elle met en lumière des sujets tels que le marketing du cancer du sein, le marketing genré et les menaces que représentent les stéréotypes de genre sur la santé des femmes.
-En mars 2016, après un remaniement ministériel, elle rejoint le cabinet de Laurence Rossignol, ministre des Familles, de l'Enfance et des Droits des femmes, en tant que chargée de mission en communication, puis conseillère[6],[7],[8].
-En 2019, elle devient consultante en gestion de carrières, accompagnant une centaine de femmes dans le cadre de bilans de compétences[9].
-En 2022, elle rejoint l’association DesCodeuses en tant que responsable de l’insertion professionnelle[10].
-En septembre 2023, elle intègre le Département de la Seine-Saint-Denis en tant que cheffe de bureau du développement des compétences[11].
-En parallèle à ces activités, elle intervient en tant que conférencière[12] au sein d’entreprises et de collectivités pour sensibiliser à la question de l’égalité femmes hommes et à la déconstruction des stéréotypes.
+          <t>Jeunesse et études</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née à Paris en 1973, Sophie Gourion obtient en 1991 un baccalauréat lettres et langues, suivi d'un BTS commerce international. Elle poursuit avec une licence en Sciences de l'éducation à l'université Paris X Nanterre. 
 </t>
         </is>
       </c>
@@ -549,26 +557,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Écrits et engagements</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blog
-En 2011, elle crée le blog Tout à l’ego, axé sur l'égalité femmes hommes et la dénonciation des publicités sexistes. Elle est surnommée par le magazine Elle «La vigie 2.0 du féminisme[13]» en raison de son importante présence médiatique et sa dénonciation permanente du sexisme. Le site Toute la culture la décrit comme «l’électron libre du féminisme[14]».
-Tumblr
-En 2016, elle crée le Tumblr Les Mots tuent[15],[16],[17] pour dénoncer le traitement journalistique des violences faites aux femmes. Elle déclare que « Le foyer est le lieu de tous les dangers pour les femmes». « Il s'agit vraiment d'une véritable violence de genre puisque 80% des victimes d'homicides conjugaux sont des femmes[18].«Le crime passionnel n’a aucune existence juridique[19]. 
-Son travail bénéficie d'un relais médiatique. Il est cité par des médias d'information généraliste[20],[21],[22],[23]. Il est également évoqué par Marlène Schiappa dans un article publié sur le site de la Fondation Jean Jaurès[24] et figure dans l'avis sur les violences contre les femmes et les féminicides de la Commission nationale des droits de l'homme (CNCDH)[25]. Le HCEF le cite dans son avis[26] pour une juste condamnation sociétale et judiciaire du viol et autres agressions sexuelles et dans  son 1er état des lieux du sexisme en France][27].
-Le Tumblr est également mentionné dans de nombreux ouvrages[28],[29],[30],[31], notamment ceux de Valérie Rey-Robert[32], de Lauren Bastide[33] ou de Caroline de Haas[34].
-Riche de plus de 350 articles épinglés, le Tumblr a contribué à améliorer le traitement journalistique des violences sexistes et sexuelles, comme l'explique Lauren Bastide « C’est fabuleux de voir que 3 ans après les lignes ont bougé. Le Tumblr "Les mots tuent" mis en place par Sophie Gourion en mars 2016 afin de recenser et de dénoncer les titres infâmes des articles concernant les meurtres et les agressions dans la presse, fait état de moins en moins de cas chaque jour »[35]. Le collectif Prenons la une rejoint cet état des lieux: « Notre premier constat est une bonne nouvelle: les titres chargés de préjugés minimisant les violences – qui avaient poussés la journaliste Sophie Gourion à créer le blog «Les mots tuent» en 2016 – sont aujourd’hui l’exception. »[36]. Caroline de Haas[37] reconnait la contribution très importante des militants et militantes féministes pour faire évoluer le langage dans le traitement journalistique des violences faites aux femmes: « c'est notamment le travail de Sophie Gourion, avec son blog #LesMotsTuent qui a fait bouger les lignes ».
-Campagne sur les réseaux sociaux
-En 2012, elle écrit une tribune pour Le Monde intitulée «#Unbonjuif: Twitter vitrine ou poubelle?[38]», dénonçant le hashtag #unbonjuif, mot-clé devenu le 3e sujet populaire sur Twitter et l'effet de meute qui s'en est suivi.
-En 2014, elle est victime d'un bombardement Google  par Alexandre Chombeau de l’agence CSV via Amazon Mechanical après avoir épinglé le site Seduction by Kamal pour incitation au viol. Elle publie un article sur Slate[39]pour dénoncer ces actions destinées à entacher sa réputation.
-En 2017, elle lance le hashtag #Balancetonforum pour interpeller les marques et les inciter à interrompre leurs publicités sur Jeuxvideo.com suite à une campagne de harcèlement contre la journaliste Nadia Daam. Cette initiative pousse 8 annonceurs à suspendre leurs publicités[40].
-Productions culturelles
-En 2017, elle crée le podcast Corps et âme, explorant à travers 20 épisodes les expériences corporelles et ce qu'elles disent de notre société[41].
-En 2019, elle devient chroniqueuse sur France Inter dans l’émission Pas son genre[42].
-La même année, elle publie Les filles et les garçons peuvent le faire aussi[43], illustré par Isabelle Maroger[44].
+          <t>Parcours professionnel</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sophie Gourion travaille pendant 11 ans dans le marketing et la communication chez L’Oréal ,(2000-2011).
+De 2012 à 2015, elle se reconvertit en tant que journaliste freelance, se spécialisant dans le gender marketing, l'égalité femmes hommes et les stéréotypes de genre. Elle collabore avec des médias tels que Slate , Auféminin.com, L’Express styles et Rue 89.
+Dans ses articles, elle met en lumière des sujets tels que le marketing du cancer du sein, le marketing genré et les menaces que représentent les stéréotypes de genre sur la santé des femmes.
+En mars 2016, après un remaniement ministériel, elle rejoint le cabinet de Laurence Rossignol, ministre des Familles, de l'Enfance et des Droits des femmes, en tant que chargée de mission en communication, puis conseillère.
+En 2019, elle devient consultante en gestion de carrières, accompagnant une centaine de femmes dans le cadre de bilans de compétences.
+En 2022, elle rejoint l’association DesCodeuses en tant que responsable de l’insertion professionnelle.
+En septembre 2023, elle intègre le Département de la Seine-Saint-Denis en tant que cheffe de bureau du développement des compétences.
+En parallèle à ces activités, elle intervient en tant que conférencière au sein d’entreprises et de collectivités pour sensibiliser à la question de l’égalité femmes hommes et à la déconstruction des stéréotypes.
 </t>
         </is>
       </c>
@@ -594,10 +601,167 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Écrits et engagements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Blog</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2011, elle crée le blog Tout à l’ego, axé sur l'égalité femmes hommes et la dénonciation des publicités sexistes. Elle est surnommée par le magazine Elle «La vigie 2.0 du féminisme» en raison de son importante présence médiatique et sa dénonciation permanente du sexisme. Le site Toute la culture la décrit comme «l’électron libre du féminisme».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sophie_Gourion</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Gourion</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Écrits et engagements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Tumblr</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2016, elle crée le Tumblr Les Mots tuent pour dénoncer le traitement journalistique des violences faites aux femmes. Elle déclare que « Le foyer est le lieu de tous les dangers pour les femmes». « Il s'agit vraiment d'une véritable violence de genre puisque 80% des victimes d'homicides conjugaux sont des femmes.«Le crime passionnel n’a aucune existence juridique. 
+Son travail bénéficie d'un relais médiatique. Il est cité par des médias d'information généraliste. Il est également évoqué par Marlène Schiappa dans un article publié sur le site de la Fondation Jean Jaurès et figure dans l'avis sur les violences contre les femmes et les féminicides de la Commission nationale des droits de l'homme (CNCDH). Le HCEF le cite dans son avis pour une juste condamnation sociétale et judiciaire du viol et autres agressions sexuelles et dans  son 1er état des lieux du sexisme en France].
+Le Tumblr est également mentionné dans de nombreux ouvrages notamment ceux de Valérie Rey-Robert, de Lauren Bastide ou de Caroline de Haas.
+Riche de plus de 350 articles épinglés, le Tumblr a contribué à améliorer le traitement journalistique des violences sexistes et sexuelles, comme l'explique Lauren Bastide « C’est fabuleux de voir que 3 ans après les lignes ont bougé. Le Tumblr "Les mots tuent" mis en place par Sophie Gourion en mars 2016 afin de recenser et de dénoncer les titres infâmes des articles concernant les meurtres et les agressions dans la presse, fait état de moins en moins de cas chaque jour ». Le collectif Prenons la une rejoint cet état des lieux: « Notre premier constat est une bonne nouvelle: les titres chargés de préjugés minimisant les violences – qui avaient poussés la journaliste Sophie Gourion à créer le blog «Les mots tuent» en 2016 – sont aujourd’hui l’exception. ». Caroline de Haas reconnait la contribution très importante des militants et militantes féministes pour faire évoluer le langage dans le traitement journalistique des violences faites aux femmes: « c'est notamment le travail de Sophie Gourion, avec son blog #LesMotsTuent qui a fait bouger les lignes ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sophie_Gourion</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Gourion</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écrits et engagements</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Campagne sur les réseaux sociaux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2012, elle écrit une tribune pour Le Monde intitulée «#Unbonjuif: Twitter vitrine ou poubelle?», dénonçant le hashtag #unbonjuif, mot-clé devenu le 3e sujet populaire sur Twitter et l'effet de meute qui s'en est suivi.
+En 2014, elle est victime d'un bombardement Google  par Alexandre Chombeau de l’agence CSV via Amazon Mechanical après avoir épinglé le site Seduction by Kamal pour incitation au viol. Elle publie un article sur Slatepour dénoncer ces actions destinées à entacher sa réputation.
+En 2017, elle lance le hashtag #Balancetonforum pour interpeller les marques et les inciter à interrompre leurs publicités sur Jeuxvideo.com suite à une campagne de harcèlement contre la journaliste Nadia Daam. Cette initiative pousse 8 annonceurs à suspendre leurs publicités.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sophie_Gourion</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Gourion</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écrits et engagements</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Productions culturelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2017, elle crée le podcast Corps et âme, explorant à travers 20 épisodes les expériences corporelles et ce qu'elles disent de notre société.
+En 2019, elle devient chroniqueuse sur France Inter dans l’émission Pas son genre.
+La même année, elle publie Les filles et les garçons peuvent le faire aussi, illustré par Isabelle Maroger.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sophie_Gourion</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Gourion</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Ouvrage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Sophie Gourion et Isabelle Maroger, Les filles peuvent le faire aussi ! Les garçons peuvent le faire aussi !, Gründ, 2019 (ISBN 978-2-324-02260-9).</t>
         </is>
